--- a/src/patients_2.xlsx
+++ b/src/patients_2.xlsx
@@ -466,7 +466,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
